--- a/Unity/Assets/Config/Excel/MonsterConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MonsterConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="野外怪物" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>1001怪物</t>
+  </si>
+  <si>
+    <t>1002怪物</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -723,9 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="5"/>
@@ -1091,8 +1091,8 @@
     <col min="3" max="3" width="18.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="28.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="6" max="6" width="31.75" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1165,12 +1165,26 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>10001</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3"/>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10001</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="3:5">
       <c r="C6" s="4"/>
